--- a/storage/excel/import/2-category.xlsx
+++ b/storage/excel/import/2-category.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
   <sheets>
-    <sheet name="销售属性男装中文" sheetId="1" r:id="rId1"/>
-    <sheet name="销售属性英文版" sheetId="2" r:id="rId2"/>
+    <sheet name="全部属性中文" sheetId="5" r:id="rId1"/>
+    <sheet name="全部属性英文" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">销售属性男装中文!$A$1:$C$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">销售属性英文版!$A$1:$C$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">全部属性英文!$A$1:$C$313</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">全部属性中文!$A$1:$C$313</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="116">
   <si>
     <t>一级类目名称</t>
   </si>
@@ -151,9 +152,6 @@
     <t>套头</t>
   </si>
   <si>
-    <t>背心1</t>
-  </si>
-  <si>
     <t>V领</t>
   </si>
   <si>
@@ -380,6 +378,9 @@
   </si>
   <si>
     <t>socks</t>
+  </si>
+  <si>
+    <t>v领</t>
   </si>
 </sst>
 </file>
@@ -436,8 +437,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -446,10 +450,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,27 +732,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -779,10 +781,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -790,10 +792,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -801,10 +803,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -812,10 +814,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -823,10 +825,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -834,10 +836,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -845,10 +847,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -856,10 +858,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -867,10 +869,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -878,10 +880,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -889,10 +891,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -900,10 +902,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -911,10 +913,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -922,10 +924,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -933,10 +935,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -944,10 +946,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -955,10 +957,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -966,10 +968,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -977,10 +979,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -988,10 +990,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -999,10 +1001,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -1010,10 +1012,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -1021,10 +1023,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -1032,10 +1034,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -1043,10 +1045,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -1054,10 +1056,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -1065,10 +1067,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -1076,10 +1078,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -1087,10 +1089,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -1098,10 +1100,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1109,10 +1111,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -1120,10 +1122,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1131,10 +1133,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -1142,10 +1144,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -1153,10 +1155,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -1164,10 +1166,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1175,10 +1177,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1186,10 +1188,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1197,10 +1199,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -1208,10 +1210,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -1219,10 +1221,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -1230,10 +1232,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1241,10 +1243,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1252,10 +1254,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1263,10 +1265,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -1274,10 +1276,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -1285,10 +1287,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -1296,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1307,10 +1309,10 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -1318,10 +1320,10 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -1329,10 +1331,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -1340,10 +1342,10 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -1351,10 +1353,10 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -1362,10 +1364,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -1373,10 +1375,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -1384,10 +1386,10 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -1395,10 +1397,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -1406,10 +1408,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -1417,10 +1419,10 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -1428,10 +1430,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -1439,10 +1441,10 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -1450,10 +1452,10 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -1461,10 +1463,10 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -1472,10 +1474,10 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -1483,10 +1485,10 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -1494,10 +1496,10 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -1505,10 +1507,10 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>45</v>
+        <v>9</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -1516,10 +1518,10 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>45</v>
+        <v>9</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -1527,10 +1529,10 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -1538,10 +1540,10 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -1549,10 +1551,10 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -1560,10 +1562,10 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
-      </c>
-      <c r="C75" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -1571,10 +1573,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -1582,10 +1584,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -1593,10 +1595,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -1604,10 +1606,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -1615,10 +1617,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -1626,10 +1628,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -1637,10 +1639,10 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>48</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -1648,10 +1650,10 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -1659,10 +1661,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -1670,10 +1672,10 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
-      </c>
-      <c r="C85" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -1681,10 +1683,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86" t="s">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -1692,10 +1694,10 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C87" t="s">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -1703,10 +1705,10 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -1714,10 +1716,10 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
-      </c>
-      <c r="C89" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -1725,10 +1727,10 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90" t="s">
-        <v>57</v>
+        <v>15</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -1736,15 +1738,2462 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>57</v>
-      </c>
-      <c r="C91" t="s">
-        <v>57</v>
+        <v>15</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" t="s">
+        <v>28</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" t="s">
+        <v>28</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" t="s">
+        <v>28</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
+        <v>28</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>28</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" t="s">
+        <v>28</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" t="s">
+        <v>28</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" t="s">
+        <v>28</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" t="s">
+        <v>28</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162" t="s">
+        <v>28</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" t="s">
+        <v>28</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" t="s">
+        <v>28</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" t="s">
+        <v>28</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" t="s">
+        <v>28</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167" t="s">
+        <v>28</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168" t="s">
+        <v>28</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" t="s">
+        <v>28</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>3</v>
+      </c>
+      <c r="B172" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174" t="s">
+        <v>28</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" t="s">
+        <v>28</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" t="s">
+        <v>28</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" t="s">
+        <v>36</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" t="s">
+        <v>36</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>3</v>
+      </c>
+      <c r="B184" t="s">
+        <v>36</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>3</v>
+      </c>
+      <c r="B185" t="s">
+        <v>36</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186" t="s">
+        <v>36</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>3</v>
+      </c>
+      <c r="B187" t="s">
+        <v>36</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" t="s">
+        <v>36</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>3</v>
+      </c>
+      <c r="B189" t="s">
+        <v>36</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>3</v>
+      </c>
+      <c r="B190" t="s">
+        <v>36</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>3</v>
+      </c>
+      <c r="B191" t="s">
+        <v>36</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192" t="s">
+        <v>36</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>3</v>
+      </c>
+      <c r="B193" t="s">
+        <v>36</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194" t="s">
+        <v>36</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>3</v>
+      </c>
+      <c r="B195" t="s">
+        <v>36</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>3</v>
+      </c>
+      <c r="B196" t="s">
+        <v>36</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>3</v>
+      </c>
+      <c r="B197" t="s">
+        <v>36</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>3</v>
+      </c>
+      <c r="B198" t="s">
+        <v>36</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>3</v>
+      </c>
+      <c r="B199" t="s">
+        <v>36</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>3</v>
+      </c>
+      <c r="B200" t="s">
+        <v>36</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>3</v>
+      </c>
+      <c r="B201" t="s">
+        <v>36</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>3</v>
+      </c>
+      <c r="B202" t="s">
+        <v>36</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" t="s">
+        <v>36</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>3</v>
+      </c>
+      <c r="B204" t="s">
+        <v>36</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>3</v>
+      </c>
+      <c r="B205" t="s">
+        <v>36</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
+        <v>3</v>
+      </c>
+      <c r="B206" t="s">
+        <v>36</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>3</v>
+      </c>
+      <c r="B207" t="s">
+        <v>36</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
+        <v>3</v>
+      </c>
+      <c r="B208" t="s">
+        <v>36</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
+        <v>3</v>
+      </c>
+      <c r="B209" t="s">
+        <v>36</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210" t="s">
+        <v>36</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>3</v>
+      </c>
+      <c r="B211" t="s">
+        <v>36</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
+        <v>3</v>
+      </c>
+      <c r="B212" t="s">
+        <v>36</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>3</v>
+      </c>
+      <c r="B213" t="s">
+        <v>36</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
+        <v>3</v>
+      </c>
+      <c r="B214" t="s">
+        <v>40</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
+        <v>3</v>
+      </c>
+      <c r="B215" t="s">
+        <v>40</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A216" t="s">
+        <v>3</v>
+      </c>
+      <c r="B216" t="s">
+        <v>40</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>3</v>
+      </c>
+      <c r="B217" t="s">
+        <v>40</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>3</v>
+      </c>
+      <c r="B218" t="s">
+        <v>40</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
+        <v>3</v>
+      </c>
+      <c r="B219" t="s">
+        <v>40</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
+        <v>3</v>
+      </c>
+      <c r="B220" t="s">
+        <v>40</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
+        <v>3</v>
+      </c>
+      <c r="B221" t="s">
+        <v>40</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A222" t="s">
+        <v>3</v>
+      </c>
+      <c r="B222" t="s">
+        <v>40</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
+        <v>3</v>
+      </c>
+      <c r="B223" t="s">
+        <v>40</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A224" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" t="s">
+        <v>40</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A225" t="s">
+        <v>3</v>
+      </c>
+      <c r="B225" t="s">
+        <v>40</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
+        <v>3</v>
+      </c>
+      <c r="B226" t="s">
+        <v>40</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
+        <v>3</v>
+      </c>
+      <c r="B227" t="s">
+        <v>40</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A228" t="s">
+        <v>3</v>
+      </c>
+      <c r="B228" t="s">
+        <v>40</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A229" t="s">
+        <v>3</v>
+      </c>
+      <c r="B229" t="s">
+        <v>40</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A230" t="s">
+        <v>3</v>
+      </c>
+      <c r="B230" t="s">
+        <v>40</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A231" t="s">
+        <v>3</v>
+      </c>
+      <c r="B231" t="s">
+        <v>40</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A232" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232" t="s">
+        <v>40</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A233" t="s">
+        <v>3</v>
+      </c>
+      <c r="B233" t="s">
+        <v>40</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A234" t="s">
+        <v>3</v>
+      </c>
+      <c r="B234" t="s">
+        <v>40</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A235" t="s">
+        <v>3</v>
+      </c>
+      <c r="B235" t="s">
+        <v>40</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A236" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236" t="s">
+        <v>40</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A237" t="s">
+        <v>3</v>
+      </c>
+      <c r="B237" t="s">
+        <v>40</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A238" t="s">
+        <v>3</v>
+      </c>
+      <c r="B238" t="s">
+        <v>40</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A239" t="s">
+        <v>3</v>
+      </c>
+      <c r="B239" t="s">
+        <v>40</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A240" t="s">
+        <v>3</v>
+      </c>
+      <c r="B240" t="s">
+        <v>40</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A241" t="s">
+        <v>3</v>
+      </c>
+      <c r="B241" t="s">
+        <v>40</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A242" t="s">
+        <v>3</v>
+      </c>
+      <c r="B242" t="s">
+        <v>40</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A243" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>40</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A244" t="s">
+        <v>3</v>
+      </c>
+      <c r="B244" t="s">
+        <v>40</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A245" t="s">
+        <v>3</v>
+      </c>
+      <c r="B245" t="s">
+        <v>40</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A246" t="s">
+        <v>3</v>
+      </c>
+      <c r="B246" t="s">
+        <v>40</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A247" t="s">
+        <v>3</v>
+      </c>
+      <c r="B247" t="s">
+        <v>40</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A248" t="s">
+        <v>3</v>
+      </c>
+      <c r="B248" t="s">
+        <v>46</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A249" t="s">
+        <v>3</v>
+      </c>
+      <c r="B249" t="s">
+        <v>46</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A250" t="s">
+        <v>3</v>
+      </c>
+      <c r="B250" t="s">
+        <v>46</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A251" t="s">
+        <v>3</v>
+      </c>
+      <c r="B251" t="s">
+        <v>46</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A252" t="s">
+        <v>3</v>
+      </c>
+      <c r="B252" t="s">
+        <v>46</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A253" t="s">
+        <v>3</v>
+      </c>
+      <c r="B253" t="s">
+        <v>46</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A254" t="s">
+        <v>3</v>
+      </c>
+      <c r="B254" t="s">
+        <v>46</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A255" t="s">
+        <v>3</v>
+      </c>
+      <c r="B255" t="s">
+        <v>46</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A256" t="s">
+        <v>3</v>
+      </c>
+      <c r="B256" t="s">
+        <v>47</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A257" t="s">
+        <v>3</v>
+      </c>
+      <c r="B257" t="s">
+        <v>47</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A258" t="s">
+        <v>3</v>
+      </c>
+      <c r="B258" t="s">
+        <v>47</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A259" t="s">
+        <v>3</v>
+      </c>
+      <c r="B259" t="s">
+        <v>47</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A260" t="s">
+        <v>3</v>
+      </c>
+      <c r="B260" t="s">
+        <v>47</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A261" t="s">
+        <v>3</v>
+      </c>
+      <c r="B261" t="s">
+        <v>47</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A262" t="s">
+        <v>3</v>
+      </c>
+      <c r="B262" t="s">
+        <v>47</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A263" t="s">
+        <v>3</v>
+      </c>
+      <c r="B263" t="s">
+        <v>47</v>
+      </c>
+      <c r="C263" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A264" t="s">
+        <v>3</v>
+      </c>
+      <c r="B264" t="s">
+        <v>47</v>
+      </c>
+      <c r="C264" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A265" t="s">
+        <v>3</v>
+      </c>
+      <c r="B265" t="s">
+        <v>47</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A266" t="s">
+        <v>3</v>
+      </c>
+      <c r="B266" t="s">
+        <v>47</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A267" t="s">
+        <v>3</v>
+      </c>
+      <c r="B267" t="s">
+        <v>47</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A268" t="s">
+        <v>3</v>
+      </c>
+      <c r="B268" t="s">
+        <v>47</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A269" t="s">
+        <v>3</v>
+      </c>
+      <c r="B269" t="s">
+        <v>47</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A270" t="s">
+        <v>3</v>
+      </c>
+      <c r="B270" t="s">
+        <v>47</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A271" t="s">
+        <v>3</v>
+      </c>
+      <c r="B271" t="s">
+        <v>47</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A272" t="s">
+        <v>3</v>
+      </c>
+      <c r="B272" t="s">
+        <v>47</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A273" t="s">
+        <v>3</v>
+      </c>
+      <c r="B273" t="s">
+        <v>47</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A274" t="s">
+        <v>3</v>
+      </c>
+      <c r="B274" t="s">
+        <v>47</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A275" t="s">
+        <v>3</v>
+      </c>
+      <c r="B275" t="s">
+        <v>47</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A276" t="s">
+        <v>3</v>
+      </c>
+      <c r="B276" t="s">
+        <v>47</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A277" t="s">
+        <v>3</v>
+      </c>
+      <c r="B277" t="s">
+        <v>47</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A278" t="s">
+        <v>3</v>
+      </c>
+      <c r="B278" t="s">
+        <v>47</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A279" t="s">
+        <v>3</v>
+      </c>
+      <c r="B279" t="s">
+        <v>47</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A280" t="s">
+        <v>3</v>
+      </c>
+      <c r="B280" t="s">
+        <v>47</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A281" t="s">
+        <v>3</v>
+      </c>
+      <c r="B281" t="s">
+        <v>47</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A282" t="s">
+        <v>3</v>
+      </c>
+      <c r="B282" t="s">
+        <v>47</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A283" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" t="s">
+        <v>47</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A284" t="s">
+        <v>3</v>
+      </c>
+      <c r="B284" t="s">
+        <v>47</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A285" t="s">
+        <v>3</v>
+      </c>
+      <c r="B285" t="s">
+        <v>47</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A286" t="s">
+        <v>3</v>
+      </c>
+      <c r="B286" t="s">
+        <v>47</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A287" t="s">
+        <v>3</v>
+      </c>
+      <c r="B287" t="s">
+        <v>47</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A288" t="s">
+        <v>3</v>
+      </c>
+      <c r="B288" t="s">
+        <v>47</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A289" t="s">
+        <v>3</v>
+      </c>
+      <c r="B289" t="s">
+        <v>47</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A290" t="s">
+        <v>3</v>
+      </c>
+      <c r="B290" t="s">
+        <v>47</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A291" t="s">
+        <v>3</v>
+      </c>
+      <c r="B291" t="s">
+        <v>47</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A292" t="s">
+        <v>3</v>
+      </c>
+      <c r="B292" t="s">
+        <v>47</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A293" t="s">
+        <v>3</v>
+      </c>
+      <c r="B293" t="s">
+        <v>47</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A294" t="s">
+        <v>3</v>
+      </c>
+      <c r="B294" t="s">
+        <v>47</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A295" t="s">
+        <v>3</v>
+      </c>
+      <c r="B295" t="s">
+        <v>47</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A296" t="s">
+        <v>3</v>
+      </c>
+      <c r="B296" t="s">
+        <v>53</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A297" t="s">
+        <v>3</v>
+      </c>
+      <c r="B297" t="s">
+        <v>53</v>
+      </c>
+      <c r="C297" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A298" t="s">
+        <v>3</v>
+      </c>
+      <c r="B298" t="s">
+        <v>53</v>
+      </c>
+      <c r="C298" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A299" t="s">
+        <v>3</v>
+      </c>
+      <c r="B299" t="s">
+        <v>53</v>
+      </c>
+      <c r="C299" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A300" t="s">
+        <v>3</v>
+      </c>
+      <c r="B300" t="s">
+        <v>53</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A301" t="s">
+        <v>3</v>
+      </c>
+      <c r="B301" t="s">
+        <v>53</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A302" t="s">
+        <v>3</v>
+      </c>
+      <c r="B302" t="s">
+        <v>53</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A303" t="s">
+        <v>3</v>
+      </c>
+      <c r="B303" t="s">
+        <v>53</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A304" t="s">
+        <v>3</v>
+      </c>
+      <c r="B304" t="s">
+        <v>53</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A305" t="s">
+        <v>3</v>
+      </c>
+      <c r="B305" t="s">
+        <v>53</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A306" t="s">
+        <v>3</v>
+      </c>
+      <c r="B306" t="s">
+        <v>53</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A307" t="s">
+        <v>3</v>
+      </c>
+      <c r="B307" t="s">
+        <v>53</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A308" t="s">
+        <v>3</v>
+      </c>
+      <c r="B308" t="s">
+        <v>56</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A309" t="s">
+        <v>3</v>
+      </c>
+      <c r="B309" t="s">
+        <v>56</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A310" t="s">
+        <v>3</v>
+      </c>
+      <c r="B310" t="s">
+        <v>56</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A311" t="s">
+        <v>3</v>
+      </c>
+      <c r="B311" t="s">
+        <v>56</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A312" t="s">
+        <v>3</v>
+      </c>
+      <c r="B312" t="s">
+        <v>56</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A313" t="s">
+        <v>3</v>
+      </c>
+      <c r="B313" t="s">
+        <v>56</v>
+      </c>
+      <c r="C313" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:AD91">
-    <sortCondition ref="B1:B91" customList="二级类目名称,卫衣帽衫,上装,夹克外套,裤子,衬衫,牛仔裤,配饰,毛衣,内衣,西装,睡衣,短裤,袜子"/>
+  <autoFilter ref="A1:C313">
+    <sortState ref="A2:C46">
+      <sortCondition ref="C2:C313" customList="开衫,套头,背心,v领"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A1:AL313">
+    <sortCondition ref="B1:B313" customList="二级类目名称,卫衣帽衫,上装,夹克外套,裤子,衬衫,牛仔裤,配饰,毛衣,内衣,西装,睡衣,短裤,袜子"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1753,1021 +4202,3468 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C313"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="D316" sqref="D316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>67</v>
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>67</v>
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>69</v>
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>74</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
+      <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" t="s">
-        <v>78</v>
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>78</v>
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" t="s">
-        <v>81</v>
+      <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" t="s">
-        <v>81</v>
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" t="s">
-        <v>82</v>
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" t="s">
-        <v>82</v>
+      <c r="A37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>83</v>
+      <c r="A38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" t="s">
-        <v>83</v>
+      <c r="A39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" t="s">
-        <v>84</v>
+        <v>65</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>84</v>
+        <v>65</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
+      <c r="A42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" t="s">
-        <v>86</v>
+      <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" t="s">
-        <v>87</v>
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" t="s">
-        <v>88</v>
+      <c r="A47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" t="s">
-        <v>90</v>
+      <c r="A50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" t="s">
-        <v>90</v>
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" t="s">
-        <v>91</v>
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" t="s">
-        <v>91</v>
+      <c r="A53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" t="s">
-        <v>92</v>
+      <c r="A54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" t="s">
-        <v>92</v>
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" t="s">
-        <v>95</v>
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" t="s">
-        <v>95</v>
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" t="s">
-        <v>96</v>
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>93</v>
-      </c>
-      <c r="C61" t="s">
-        <v>96</v>
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" t="s">
-        <v>97</v>
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" t="s">
-        <v>97</v>
+      <c r="A63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" t="s">
-        <v>100</v>
+      <c r="A66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" t="s">
-        <v>100</v>
+      <c r="A67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" t="s">
-        <v>101</v>
+      <c r="A68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" t="s">
-        <v>101</v>
+      <c r="A69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" t="s">
-        <v>102</v>
+      <c r="A70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" t="s">
-        <v>102</v>
+      <c r="A71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>61</v>
-      </c>
-      <c r="B74" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" t="s">
-        <v>104</v>
+      <c r="A74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" t="s">
-        <v>104</v>
+      <c r="A75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" t="s">
-        <v>105</v>
-      </c>
-      <c r="C76" t="s">
-        <v>106</v>
+      <c r="A76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B77" t="s">
-        <v>105</v>
-      </c>
-      <c r="C77" t="s">
-        <v>106</v>
+      <c r="A77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B78" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>61</v>
-      </c>
-      <c r="B80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80" t="s">
-        <v>108</v>
+      <c r="A80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>61</v>
-      </c>
-      <c r="B81" t="s">
-        <v>105</v>
-      </c>
-      <c r="C81" t="s">
-        <v>108</v>
+      <c r="A81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>61</v>
-      </c>
-      <c r="B82" t="s">
-        <v>105</v>
-      </c>
-      <c r="C82" t="s">
-        <v>109</v>
+      <c r="A82" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>61</v>
-      </c>
-      <c r="B83" t="s">
-        <v>105</v>
-      </c>
-      <c r="C83" t="s">
-        <v>109</v>
+      <c r="A83" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C84" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C85" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>61</v>
-      </c>
-      <c r="B86" t="s">
-        <v>111</v>
-      </c>
-      <c r="C86" t="s">
-        <v>112</v>
+      <c r="A86" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>61</v>
-      </c>
-      <c r="B87" t="s">
-        <v>111</v>
-      </c>
-      <c r="C87" t="s">
-        <v>112</v>
+      <c r="A87" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>61</v>
-      </c>
-      <c r="B88" t="s">
-        <v>111</v>
-      </c>
-      <c r="C88" t="s">
-        <v>113</v>
+      <c r="A88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>61</v>
-      </c>
-      <c r="B89" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" t="s">
-        <v>113</v>
+      <c r="A89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C90" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>60</v>
+      </c>
+      <c r="B96" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>60</v>
+      </c>
+      <c r="B97" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>60</v>
+      </c>
+      <c r="B102" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>60</v>
+      </c>
+      <c r="B103" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>60</v>
+      </c>
+      <c r="B108" t="s">
+        <v>71</v>
+      </c>
+      <c r="C108" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>60</v>
+      </c>
+      <c r="B109" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>71</v>
+      </c>
+      <c r="C115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>60</v>
+      </c>
+      <c r="B122" t="s">
+        <v>79</v>
+      </c>
+      <c r="C122" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>60</v>
+      </c>
+      <c r="B123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>60</v>
+      </c>
+      <c r="B130" t="s">
+        <v>79</v>
+      </c>
+      <c r="C130" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>60</v>
+      </c>
+      <c r="B131" t="s">
+        <v>79</v>
+      </c>
+      <c r="C131" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>60</v>
+      </c>
+      <c r="B138" t="s">
+        <v>79</v>
+      </c>
+      <c r="C138" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>60</v>
+      </c>
+      <c r="B139" t="s">
+        <v>79</v>
+      </c>
+      <c r="C139" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>60</v>
+      </c>
+      <c r="B144" t="s">
+        <v>83</v>
+      </c>
+      <c r="C144" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>60</v>
+      </c>
+      <c r="B145" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>60</v>
+      </c>
+      <c r="B150" t="s">
+        <v>84</v>
+      </c>
+      <c r="C150" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>60</v>
+      </c>
+      <c r="B151" t="s">
+        <v>84</v>
+      </c>
+      <c r="C151" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>60</v>
+      </c>
+      <c r="B155" t="s">
+        <v>84</v>
+      </c>
+      <c r="C155" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>60</v>
+      </c>
+      <c r="B156" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A157" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A158" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A159" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>60</v>
+      </c>
+      <c r="B160" t="s">
+        <v>84</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>60</v>
+      </c>
+      <c r="B161" t="s">
+        <v>84</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A162" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A163" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A164" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>60</v>
+      </c>
+      <c r="B165" t="s">
+        <v>84</v>
+      </c>
+      <c r="C165" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>60</v>
+      </c>
+      <c r="B166" t="s">
+        <v>84</v>
+      </c>
+      <c r="C166" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A167" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A168" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A169" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>60</v>
+      </c>
+      <c r="B170" t="s">
+        <v>84</v>
+      </c>
+      <c r="C170" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>60</v>
+      </c>
+      <c r="B171" t="s">
+        <v>84</v>
+      </c>
+      <c r="C171" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A172" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A173" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A174" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>60</v>
+      </c>
+      <c r="B175" t="s">
+        <v>84</v>
+      </c>
+      <c r="C175" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>60</v>
+      </c>
+      <c r="B176" t="s">
+        <v>84</v>
+      </c>
+      <c r="C176" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A177" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A179" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>60</v>
+      </c>
+      <c r="B180" t="s">
+        <v>84</v>
+      </c>
+      <c r="C180" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>60</v>
+      </c>
+      <c r="B181" t="s">
+        <v>84</v>
+      </c>
+      <c r="C181" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A182" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A183" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A184" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A185" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A186" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A187" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>60</v>
+      </c>
+      <c r="B188" t="s">
+        <v>92</v>
+      </c>
+      <c r="C188" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>60</v>
+      </c>
+      <c r="B189" t="s">
+        <v>92</v>
+      </c>
+      <c r="C189" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A190" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C190" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A191" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C191" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A192" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C192" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A193" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C193" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A194" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C194" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A195" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C195" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>60</v>
+      </c>
+      <c r="B196" t="s">
+        <v>92</v>
+      </c>
+      <c r="C196" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>60</v>
+      </c>
+      <c r="B197" t="s">
+        <v>92</v>
+      </c>
+      <c r="C197" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A198" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A199" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A200" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A201" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A202" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A203" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>60</v>
+      </c>
+      <c r="B204" t="s">
+        <v>92</v>
+      </c>
+      <c r="C204" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>60</v>
+      </c>
+      <c r="B205" t="s">
+        <v>92</v>
+      </c>
+      <c r="C205" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A206" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A207" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A208" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A209" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A210" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A211" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
+        <v>60</v>
+      </c>
+      <c r="B212" t="s">
+        <v>92</v>
+      </c>
+      <c r="C212" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>60</v>
+      </c>
+      <c r="B213" t="s">
+        <v>92</v>
+      </c>
+      <c r="C213" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A214" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A215" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A216" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A217" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A218" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A219" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
+        <v>60</v>
+      </c>
+      <c r="B220" t="s">
+        <v>97</v>
+      </c>
+      <c r="C220" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
+        <v>60</v>
+      </c>
+      <c r="B221" t="s">
+        <v>97</v>
+      </c>
+      <c r="C221" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A222" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A223" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A224" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A225" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
+        <v>60</v>
+      </c>
+      <c r="B226" t="s">
+        <v>97</v>
+      </c>
+      <c r="C226" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
+        <v>60</v>
+      </c>
+      <c r="B227" t="s">
+        <v>97</v>
+      </c>
+      <c r="C227" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A228" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A229" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A230" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A231" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A232" t="s">
+        <v>60</v>
+      </c>
+      <c r="B232" t="s">
+        <v>97</v>
+      </c>
+      <c r="C232" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A233" t="s">
+        <v>60</v>
+      </c>
+      <c r="B233" t="s">
+        <v>97</v>
+      </c>
+      <c r="C233" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A234" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A235" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A236" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A237" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A238" t="s">
+        <v>60</v>
+      </c>
+      <c r="B238" t="s">
+        <v>97</v>
+      </c>
+      <c r="C238" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A239" t="s">
+        <v>60</v>
+      </c>
+      <c r="B239" t="s">
+        <v>97</v>
+      </c>
+      <c r="C239" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A240" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A241" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A242" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A243" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A244" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A245" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A246" t="s">
+        <v>60</v>
+      </c>
+      <c r="B246" t="s">
+        <v>97</v>
+      </c>
+      <c r="C246" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A247" t="s">
+        <v>60</v>
+      </c>
+      <c r="B247" t="s">
+        <v>97</v>
+      </c>
+      <c r="C247" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A248" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A249" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A250" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A251" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A252" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A253" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A254" t="s">
+        <v>60</v>
+      </c>
+      <c r="B254" t="s">
+        <v>103</v>
+      </c>
+      <c r="C254" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A255" t="s">
+        <v>60</v>
+      </c>
+      <c r="B255" t="s">
+        <v>103</v>
+      </c>
+      <c r="C255" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A256" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A257" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A258" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A259" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A260" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A261" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A262" t="s">
+        <v>60</v>
+      </c>
+      <c r="B262" t="s">
+        <v>104</v>
+      </c>
+      <c r="C262" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A263" t="s">
+        <v>60</v>
+      </c>
+      <c r="B263" t="s">
+        <v>104</v>
+      </c>
+      <c r="C263" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A264" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A265" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A266" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A267" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A268" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A269" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A270" t="s">
+        <v>60</v>
+      </c>
+      <c r="B270" t="s">
+        <v>104</v>
+      </c>
+      <c r="C270" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A271" t="s">
+        <v>60</v>
+      </c>
+      <c r="B271" t="s">
+        <v>104</v>
+      </c>
+      <c r="C271" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A272" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A273" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A274" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A275" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A276" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A277" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A278" t="s">
+        <v>60</v>
+      </c>
+      <c r="B278" t="s">
+        <v>104</v>
+      </c>
+      <c r="C278" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A279" t="s">
+        <v>60</v>
+      </c>
+      <c r="B279" t="s">
+        <v>104</v>
+      </c>
+      <c r="C279" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A280" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A281" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A282" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A283" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A284" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A285" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A286" t="s">
+        <v>60</v>
+      </c>
+      <c r="B286" t="s">
+        <v>104</v>
+      </c>
+      <c r="C286" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A287" t="s">
+        <v>60</v>
+      </c>
+      <c r="B287" t="s">
+        <v>104</v>
+      </c>
+      <c r="C287" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A288" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A289" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A290" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A291" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A292" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A293" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A294" t="s">
+        <v>60</v>
+      </c>
+      <c r="B294" t="s">
+        <v>104</v>
+      </c>
+      <c r="C294" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A295" t="s">
+        <v>60</v>
+      </c>
+      <c r="B295" t="s">
+        <v>104</v>
+      </c>
+      <c r="C295" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A296" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A297" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A298" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A299" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A300" t="s">
+        <v>60</v>
+      </c>
+      <c r="B300" t="s">
+        <v>110</v>
+      </c>
+      <c r="C300" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A301" t="s">
+        <v>60</v>
+      </c>
+      <c r="B301" t="s">
+        <v>110</v>
+      </c>
+      <c r="C301" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A302" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A303" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A304" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A305" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A306" t="s">
+        <v>60</v>
+      </c>
+      <c r="B306" t="s">
+        <v>110</v>
+      </c>
+      <c r="C306" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A307" t="s">
+        <v>60</v>
+      </c>
+      <c r="B307" t="s">
+        <v>110</v>
+      </c>
+      <c r="C307" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A308" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C91" t="s">
-        <v>115</v>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A309" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A310" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A311" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A312" t="s">
+        <v>60</v>
+      </c>
+      <c r="B312" t="s">
+        <v>113</v>
+      </c>
+      <c r="C312" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A313" t="s">
+        <v>60</v>
+      </c>
+      <c r="B313" t="s">
+        <v>113</v>
+      </c>
+      <c r="C313" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C313">
+    <sortState ref="A2:C313">
+      <sortCondition ref="B2:B313" customList="Secondary category name,hoodies &amp; sweatshirts,Tops,Jacket,pants,shirt,jeans,Accessories,Sweater,underwear,Suit,pajamas,shorts,sock"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
